--- a/Estatística2.xlsx
+++ b/Estatística2.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvs/repo/ipm-labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\ipm-labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28280" windowHeight="16200" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28275" windowHeight="16200" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Idade</t>
   </si>
@@ -96,15 +93,6 @@
     <t>Pergunta 7:</t>
   </si>
   <si>
-    <t>Tarefa 1 min 11</t>
-  </si>
-  <si>
-    <t>Tarefa 2 min 8</t>
-  </si>
-  <si>
-    <t>Tarefa 3 min 19</t>
-  </si>
-  <si>
     <t>Percentagem Confiança:</t>
   </si>
   <si>
@@ -122,11 +110,20 @@
   <si>
     <t>Calculado a pata:</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VARIÂNCIA TUDO A 0'S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,6 +199,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -215,6 +215,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +238,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -261,7 +263,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -293,64 +295,64 @@
                 <c:formatCode>mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.00321759259259259</c:v>
+                  <c:v>3.2175925925925926E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00172453703703704</c:v>
+                  <c:v>1.7245370370370372E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00126157407407407</c:v>
+                  <c:v>1.261574074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00135416666666667</c:v>
+                  <c:v>1.3541666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000439814814814815</c:v>
+                  <c:v>4.3981481481481481E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00099537037037037</c:v>
+                  <c:v>9.9537037037037042E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000925925925925926</c:v>
+                  <c:v>9.2592592592592585E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00162037037037037</c:v>
+                  <c:v>1.6203703703703703E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00126157407407407</c:v>
+                  <c:v>1.261574074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00149305555555556</c:v>
+                  <c:v>1.4930555555555556E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00180555555555556</c:v>
+                  <c:v>1.8055555555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00146990740740741</c:v>
+                  <c:v>1.4699074074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00105324074074074</c:v>
+                  <c:v>1.0532407407407407E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000706018518518518</c:v>
+                  <c:v>7.0601851851851847E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00278935185185185</c:v>
+                  <c:v>2.7893518518518519E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000335648148148148</c:v>
+                  <c:v>3.3564814814814812E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00167824074074074</c:v>
+                  <c:v>1.6782407407407406E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00115740740740741</c:v>
+                  <c:v>1.1574074074074073E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00144675925925926</c:v>
+                  <c:v>1.4467592592592594E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0009375</c:v>
+                  <c:v>9.3750000000000007E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,11 +368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-215428064"/>
-        <c:axId val="-212650544"/>
+        <c:axId val="-269854544"/>
+        <c:axId val="-269849648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-215428064"/>
+        <c:axId val="-269854544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,10 +411,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212650544"/>
+        <c:crossAx val="-269849648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -420,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-212650544"/>
+        <c:axId val="-269849648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,6 +442,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -467,10 +470,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-215428064"/>
+        <c:crossAx val="-269854544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -508,7 +511,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1373,23 +1376,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="8.83203125" style="1"/>
+    <col min="1" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="F1"/>
       <c r="G1"/>
@@ -1402,7 +1405,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -1415,7 +1418,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:22" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1481,8 +1484,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4"/>
+      <c r="B4" s="1">
+        <v>48</v>
+      </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
@@ -1513,9 +1519,33 @@
       <c r="O4" s="6">
         <v>1.0532407407407407E-3</v>
       </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5"/>
+      <c r="B5" s="1">
+        <v>48</v>
+      </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
@@ -1546,11 +1576,30 @@
       <c r="O5" s="6">
         <v>1.0532407407407407E-3</v>
       </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6"/>
       <c r="F6" s="2">
         <v>3</v>
       </c>
@@ -1603,10 +1652,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7"/>
       <c r="F7" s="2">
         <v>4</v>
       </c>
@@ -1659,10 +1706,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
@@ -1715,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="F9" s="2">
         <v>6</v>
@@ -1769,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="F10" s="2">
         <v>7</v>
@@ -1823,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="F11" s="2">
         <v>8</v>
@@ -1877,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="F12" s="2">
         <v>9</v>
@@ -1931,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="F13" s="2">
         <v>10</v>
@@ -1985,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="F14" s="2">
         <v>11</v>
@@ -2039,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="F15" s="2">
         <v>12</v>
@@ -2093,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="F16" s="2">
         <v>13</v>
@@ -2147,8 +2192,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17"/>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="2">
         <v>14</v>
       </c>
@@ -2201,7 +2249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="F18" s="2">
         <v>15</v>
@@ -2255,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="F19" s="2">
         <v>16</v>
@@ -2309,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="F20" s="2">
         <v>17</v>
@@ -2363,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="F21" s="2">
         <v>18</v>
@@ -2417,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="F22" s="2">
         <v>19</v>
@@ -2471,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="F23" s="2">
         <v>20</v>
@@ -2525,9 +2573,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -2540,12 +2588,12 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>0.95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ref="G25:V25" si="0">AVERAGE(G$4:G$23)</f>
@@ -2585,36 +2633,36 @@
       </c>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>3.35</v>
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="0"/>
-        <v>3.2777777777777777</v>
+        <v>3.3</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="0"/>
-        <v>3.2222222222222223</v>
+        <v>3.25</v>
       </c>
       <c r="S25" s="7">
         <f t="shared" si="0"/>
-        <v>3.2222222222222223</v>
+        <v>3.2</v>
       </c>
       <c r="T25" s="7">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <v>3.2</v>
       </c>
       <c r="U25" s="7">
         <f t="shared" si="0"/>
-        <v>3.6111111111111112</v>
+        <v>3.6</v>
       </c>
       <c r="V25" s="7">
         <f t="shared" si="0"/>
-        <v>3.7222222222222223</v>
+        <v>3.65</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ref="G26:V26" si="1">VAR(G$4:G$23)</f>
@@ -2654,36 +2702,36 @@
       </c>
       <c r="P26" s="7">
         <f t="shared" si="1"/>
-        <v>0.70588235294117652</v>
+        <v>0.66052631578947429</v>
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="1"/>
-        <v>0.68300653594771266</v>
+        <v>0.64210526315789418</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="1"/>
-        <v>0.53594771241830086</v>
+        <v>0.51315789473684215</v>
       </c>
       <c r="S26" s="7">
         <f t="shared" si="1"/>
-        <v>0.88888888888888906</v>
+        <v>0.79999999999999938</v>
       </c>
       <c r="T26" s="7">
         <f t="shared" si="1"/>
-        <v>0.61764705882352944</v>
+        <v>0.58947368421052571</v>
       </c>
       <c r="U26" s="7">
         <f t="shared" si="1"/>
-        <v>0.25163398692810418</v>
+        <v>0.25263157894736904</v>
       </c>
       <c r="V26" s="7">
         <f t="shared" si="1"/>
-        <v>0.21241830065359496</v>
+        <v>0.34473684210526373</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ref="G27:V27" si="2">STDEV(G$4:G$23)</f>
@@ -2723,36 +2771,36 @@
       </c>
       <c r="P27" s="7">
         <f t="shared" si="2"/>
-        <v>0.84016805041680587</v>
+        <v>0.81272770088724933</v>
       </c>
       <c r="Q27" s="7">
         <f t="shared" si="2"/>
-        <v>0.82644209473363139</v>
+        <v>0.80131470918603143</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="2"/>
-        <v>0.73208449814095977</v>
+        <v>0.7163503994113789</v>
       </c>
       <c r="S27" s="7">
         <f t="shared" si="2"/>
-        <v>0.94280904158206347</v>
+        <v>0.89442719099991552</v>
       </c>
       <c r="T27" s="7">
         <f t="shared" si="2"/>
-        <v>0.7859052479933758</v>
+        <v>0.76777189594991413</v>
       </c>
       <c r="U27" s="7">
         <f t="shared" si="2"/>
-        <v>0.50163132570454982</v>
+        <v>0.50262468995003518</v>
       </c>
       <c r="V27" s="7">
         <f t="shared" si="2"/>
-        <v>0.46088859896247703</v>
+        <v>0.58714294861240024</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ref="G28:V28" si="3">CONFIDENCE($A$25,G$27,20)</f>
@@ -2790,40 +2838,40 @@
         <f>CONFIDENCE($A$25,O$27,20)</f>
         <v>4.6822492360444736E-6</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <f t="shared" si="3"/>
-        <v>1.1780552269116893E-2</v>
-      </c>
-      <c r="Q28" s="7">
+        <v>1.1395792967980165E-2</v>
+      </c>
+      <c r="Q28" s="8">
         <f t="shared" si="3"/>
-        <v>1.1588091560465807E-2</v>
-      </c>
-      <c r="R28" s="7">
+        <v>1.1235763858069958E-2</v>
+      </c>
+      <c r="R28" s="8">
         <f t="shared" si="3"/>
-        <v>1.0265041251546351E-2</v>
-      </c>
-      <c r="S28" s="7">
+        <v>1.0044423040226224E-2</v>
+      </c>
+      <c r="S28" s="8">
         <f t="shared" si="3"/>
-        <v>1.321974953539763E-2</v>
-      </c>
-      <c r="T28" s="7">
+        <v>1.2541355588642764E-2</v>
+      </c>
+      <c r="T28" s="8">
         <f t="shared" si="3"/>
-        <v>1.1019697604504436E-2</v>
-      </c>
-      <c r="U28" s="7">
+        <v>1.076543787461311E-2</v>
+      </c>
+      <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>7.0337048038867471E-3</v>
-      </c>
-      <c r="V28" s="7">
+        <v>7.047633421394168E-3</v>
+      </c>
+      <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>6.4624240681658129E-3</v>
+        <v>8.232719861390049E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="K30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="8"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="1">
         <f>CONFIDENCE(0.95,59,20)</f>
         <v>0.82727804697296259</v>
@@ -2835,6 +2883,11 @@
       <c r="O30" s="1">
         <f>CONFIDENCE(0.95,29,20)</f>
         <v>0.40662819257993071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2850,9 +2903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
